--- a/StructureDefinition-ext-R5-SupplyDelivery.type.xlsx
+++ b/StructureDefinition-ext-R5-SupplyDelivery.type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-SupplyDelivery.type.xlsx
+++ b/StructureDefinition-ext-R5-SupplyDelivery.type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `SupplyDelivery.type` 0..1 `CodeableConcept`
 *  R4: `SupplyDelivery.type` 0..1 `CodeableConcept`
 Following are the generation technical comments:
-Element `SupplyDelivery.type` is mapped to FHIR R4 element `SupplyDelivery.type`.</t>
+Element `SupplyDelivery.type` has is mapped to FHIR R4 element `SupplyDelivery.type`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>

--- a/StructureDefinition-ext-R5-SupplyDelivery.type.xlsx
+++ b/StructureDefinition-ext-R5-SupplyDelivery.type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -370,7 +370,7 @@
     <t>The type of supply dispense.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-supplydelivery-supplyitemtype-for-R4-supplydelivery-type|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-supplydelivery-supplyitemtype-for-R4-supplydelivery-type</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -725,7 +725,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="23.703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="98.8828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="80.390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-SupplyDelivery.type.xlsx
+++ b/StructureDefinition-ext-R5-SupplyDelivery.type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `SupplyDelivery.type` 0..1 `CodeableConcept`
 *  R4: `SupplyDelivery.type` 0..1 `CodeableConcept`
 Following are the generation technical comments:
-Element `SupplyDelivery.type` has is mapped to FHIR R4 element `SupplyDelivery.type`, but has no comparisons.</t>
+Element `SupplyDelivery.type` is mapped to FHIR R4 element `SupplyDelivery.type` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -370,7 +370,7 @@
     <t>The type of supply dispense.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-supplydelivery-supplyitemtype-for-R4-supplydelivery-type</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-supplydelivery-supplyitemtype-for-R4-supplydelivery-type|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -725,7 +725,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="23.703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="80.390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="94.80078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
